--- a/contratos/contratos-6-2013.xlsx
+++ b/contratos/contratos-6-2013.xlsx
@@ -745,16 +745,16 @@
     <t>DUARTE EDMUNDO ALCIDES</t>
   </si>
   <si>
-    <t>FERNANDEZ, MARIO HUGO</t>
+    <t>FERNANDEZ. MARIO HUGO</t>
   </si>
   <si>
     <t>GALLICET OSCAR MARCELO</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
-  </si>
-  <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+  </si>
+  <si>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>GALVAN GUILLERMO ANDRES</t>
@@ -781,7 +781,7 @@
     <t>SYLVESTRE CARLOS OMAR</t>
   </si>
   <si>
-    <t>TRABICHET MARIA, VERGARA ADEL Y OTRA</t>
+    <t>TRABICHET MARIA. VERGARA ADEL Y OTRA</t>
   </si>
   <si>
     <t>BOZZI GUSTAVO LEONARDO</t>
@@ -790,13 +790,13 @@
     <t>CENTINELA S.R.L.</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>TOMBA HERMANOS S.R.L.</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>TESTA CARLOS ALBERTO</t>
@@ -1282,622 +1282,622 @@
     <t>102</t>
   </si>
   <si>
-    <t>3.960,11</t>
-  </si>
-  <si>
-    <t>9.106,80</t>
-  </si>
-  <si>
-    <t>260.000,00</t>
-  </si>
-  <si>
-    <t>436.949,15</t>
-  </si>
-  <si>
-    <t>1.168,60</t>
-  </si>
-  <si>
-    <t>1.580,00</t>
-  </si>
-  <si>
-    <t>1.649,54</t>
-  </si>
-  <si>
-    <t>649,98</t>
-  </si>
-  <si>
-    <t>5.996,99</t>
-  </si>
-  <si>
-    <t>8.605,96</t>
-  </si>
-  <si>
-    <t>165.615,30</t>
-  </si>
-  <si>
-    <t>10.168,00</t>
-  </si>
-  <si>
-    <t>1.900,00</t>
-  </si>
-  <si>
-    <t>15.984,10</t>
-  </si>
-  <si>
-    <t>8.052,00</t>
-  </si>
-  <si>
-    <t>3.985,50</t>
-  </si>
-  <si>
-    <t>9.629,70</t>
-  </si>
-  <si>
-    <t>970,00</t>
-  </si>
-  <si>
-    <t>3.008,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>148,00</t>
-  </si>
-  <si>
-    <t>611,82</t>
-  </si>
-  <si>
-    <t>822,80</t>
-  </si>
-  <si>
-    <t>2.238,00</t>
-  </si>
-  <si>
-    <t>886,16</t>
-  </si>
-  <si>
-    <t>428,00</t>
-  </si>
-  <si>
-    <t>82,23</t>
-  </si>
-  <si>
-    <t>23.320,00</t>
-  </si>
-  <si>
-    <t>1.232,43</t>
-  </si>
-  <si>
-    <t>8.103,15</t>
-  </si>
-  <si>
-    <t>1.257,11</t>
-  </si>
-  <si>
-    <t>78,62</t>
-  </si>
-  <si>
-    <t>2.538,50</t>
-  </si>
-  <si>
-    <t>5.849,00</t>
-  </si>
-  <si>
-    <t>18.654,06</t>
-  </si>
-  <si>
-    <t>77,71</t>
-  </si>
-  <si>
-    <t>348,00</t>
-  </si>
-  <si>
-    <t>66,00</t>
-  </si>
-  <si>
-    <t>55,72</t>
-  </si>
-  <si>
-    <t>102,75</t>
-  </si>
-  <si>
-    <t>3.064,90</t>
-  </si>
-  <si>
-    <t>10.012,00</t>
-  </si>
-  <si>
-    <t>30.792,29</t>
-  </si>
-  <si>
-    <t>4.719,78</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>2.135,16</t>
-  </si>
-  <si>
-    <t>460,00</t>
-  </si>
-  <si>
-    <t>393,84</t>
-  </si>
-  <si>
-    <t>27.725,42</t>
-  </si>
-  <si>
-    <t>1.110,00</t>
-  </si>
-  <si>
-    <t>36.040,12</t>
-  </si>
-  <si>
-    <t>536,99</t>
-  </si>
-  <si>
-    <t>2.459,00</t>
-  </si>
-  <si>
-    <t>180,00</t>
-  </si>
-  <si>
-    <t>1.270,73</t>
-  </si>
-  <si>
-    <t>1.334,40</t>
-  </si>
-  <si>
-    <t>1.008,00</t>
-  </si>
-  <si>
-    <t>821,10</t>
-  </si>
-  <si>
-    <t>245,00</t>
-  </si>
-  <si>
-    <t>5.880,00</t>
-  </si>
-  <si>
-    <t>1.446,00</t>
-  </si>
-  <si>
-    <t>335,00</t>
-  </si>
-  <si>
-    <t>1.300,00</t>
-  </si>
-  <si>
-    <t>991,98</t>
-  </si>
-  <si>
-    <t>386,17</t>
-  </si>
-  <si>
-    <t>289,00</t>
-  </si>
-  <si>
-    <t>43,92</t>
-  </si>
-  <si>
-    <t>5.382,73</t>
-  </si>
-  <si>
-    <t>316,11</t>
-  </si>
-  <si>
-    <t>16.667,00</t>
-  </si>
-  <si>
-    <t>3.200,00</t>
-  </si>
-  <si>
-    <t>2.240,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>1.050,00</t>
-  </si>
-  <si>
-    <t>108.972,00</t>
-  </si>
-  <si>
-    <t>5.135,00</t>
-  </si>
-  <si>
-    <t>4.420,00</t>
-  </si>
-  <si>
-    <t>2.420,00</t>
-  </si>
-  <si>
-    <t>999,00</t>
-  </si>
-  <si>
-    <t>2.697,30</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>1.139,00</t>
-  </si>
-  <si>
-    <t>333,59</t>
-  </si>
-  <si>
-    <t>439,00</t>
-  </si>
-  <si>
-    <t>40,85</t>
-  </si>
-  <si>
-    <t>6.199,00</t>
-  </si>
-  <si>
-    <t>1.307,67</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>75.000,00</t>
-  </si>
-  <si>
-    <t>7.800,00</t>
-  </si>
-  <si>
-    <t>428.940,00</t>
-  </si>
-  <si>
-    <t>1.060,00</t>
-  </si>
-  <si>
-    <t>706,84</t>
-  </si>
-  <si>
-    <t>9,41</t>
-  </si>
-  <si>
-    <t>31,92</t>
-  </si>
-  <si>
-    <t>635,00</t>
-  </si>
-  <si>
-    <t>2.176,00</t>
-  </si>
-  <si>
-    <t>378,00</t>
-  </si>
-  <si>
-    <t>641,79</t>
-  </si>
-  <si>
-    <t>1.129,00</t>
-  </si>
-  <si>
-    <t>5.654,55</t>
-  </si>
-  <si>
-    <t>100,28</t>
-  </si>
-  <si>
-    <t>540,00</t>
-  </si>
-  <si>
-    <t>43,15</t>
-  </si>
-  <si>
-    <t>9,00</t>
-  </si>
-  <si>
-    <t>304,00</t>
-  </si>
-  <si>
-    <t>40,00</t>
-  </si>
-  <si>
-    <t>129,00</t>
-  </si>
-  <si>
-    <t>60,00</t>
-  </si>
-  <si>
-    <t>9.701,10</t>
-  </si>
-  <si>
-    <t>98,00</t>
-  </si>
-  <si>
-    <t>3.249,00</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>50,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>2.470,00</t>
-  </si>
-  <si>
-    <t>2.904,00</t>
-  </si>
-  <si>
-    <t>1.620,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>4.605,76</t>
-  </si>
-  <si>
-    <t>586,00</t>
-  </si>
-  <si>
-    <t>2.499,36</t>
-  </si>
-  <si>
-    <t>382,00</t>
-  </si>
-  <si>
-    <t>2.270,30</t>
-  </si>
-  <si>
-    <t>22,00</t>
-  </si>
-  <si>
-    <t>45,05</t>
-  </si>
-  <si>
-    <t>360,00</t>
-  </si>
-  <si>
-    <t>27,32</t>
-  </si>
-  <si>
-    <t>131.039,20</t>
-  </si>
-  <si>
-    <t>8.160,00</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>1.794,96</t>
-  </si>
-  <si>
-    <t>384,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>10.588,50</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>290,00</t>
-  </si>
-  <si>
-    <t>6.480,00</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>70,00</t>
-  </si>
-  <si>
-    <t>395,00</t>
-  </si>
-  <si>
-    <t>990,00</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>3.090,19</t>
-  </si>
-  <si>
-    <t>3.373,24</t>
-  </si>
-  <si>
-    <t>5.910,50</t>
-  </si>
-  <si>
-    <t>110,00</t>
-  </si>
-  <si>
-    <t>227,40</t>
-  </si>
-  <si>
-    <t>4.633,00</t>
-  </si>
-  <si>
-    <t>1.942,48</t>
-  </si>
-  <si>
-    <t>725,00</t>
-  </si>
-  <si>
-    <t>61,76</t>
-  </si>
-  <si>
-    <t>3.060,00</t>
-  </si>
-  <si>
-    <t>2.886,12</t>
-  </si>
-  <si>
-    <t>548,40</t>
-  </si>
-  <si>
-    <t>1.395,04</t>
-  </si>
-  <si>
-    <t>777,03</t>
-  </si>
-  <si>
-    <t>1.007,88</t>
-  </si>
-  <si>
-    <t>460,66</t>
-  </si>
-  <si>
-    <t>44,40</t>
-  </si>
-  <si>
-    <t>2.543,00</t>
-  </si>
-  <si>
-    <t>597,00</t>
-  </si>
-  <si>
-    <t>15,20</t>
-  </si>
-  <si>
-    <t>4.833,00</t>
-  </si>
-  <si>
-    <t>32,00</t>
-  </si>
-  <si>
-    <t>647,31</t>
-  </si>
-  <si>
-    <t>79,60</t>
-  </si>
-  <si>
-    <t>80,00</t>
-  </si>
-  <si>
-    <t>798,90</t>
-  </si>
-  <si>
-    <t>966,00</t>
-  </si>
-  <si>
-    <t>237,50</t>
-  </si>
-  <si>
-    <t>240,00</t>
-  </si>
-  <si>
-    <t>352,00</t>
-  </si>
-  <si>
-    <t>114,00</t>
-  </si>
-  <si>
-    <t>373,91</t>
-  </si>
-  <si>
-    <t>590,00</t>
-  </si>
-  <si>
-    <t>995,40</t>
-  </si>
-  <si>
-    <t>709,40</t>
-  </si>
-  <si>
-    <t>3.958,90</t>
-  </si>
-  <si>
-    <t>217,80</t>
-  </si>
-  <si>
-    <t>688.864,51</t>
-  </si>
-  <si>
-    <t>16.800,00</t>
-  </si>
-  <si>
-    <t>1.331,00</t>
-  </si>
-  <si>
-    <t>196.300,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>52.000,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>50.000,00</t>
-  </si>
-  <si>
-    <t>223.000,00</t>
-  </si>
-  <si>
-    <t>111.500,00</t>
-  </si>
-  <si>
-    <t>19.300,00</t>
-  </si>
-  <si>
-    <t>422.794,40</t>
-  </si>
-  <si>
-    <t>1.850,00</t>
-  </si>
-  <si>
-    <t>188,00</t>
-  </si>
-  <si>
-    <t>93,98</t>
-  </si>
-  <si>
-    <t>16.000,00</t>
-  </si>
-  <si>
-    <t>18.343,00</t>
-  </si>
-  <si>
-    <t>8.840,00</t>
-  </si>
-  <si>
-    <t>120.000,00</t>
-  </si>
-  <si>
-    <t>784,00</t>
-  </si>
-  <si>
-    <t>174,00</t>
+    <t>3960.11</t>
+  </si>
+  <si>
+    <t>9106.80</t>
+  </si>
+  <si>
+    <t>260000.00</t>
+  </si>
+  <si>
+    <t>436949.15</t>
+  </si>
+  <si>
+    <t>1168.60</t>
+  </si>
+  <si>
+    <t>1580.00</t>
+  </si>
+  <si>
+    <t>1649.54</t>
+  </si>
+  <si>
+    <t>649.98</t>
+  </si>
+  <si>
+    <t>5996.99</t>
+  </si>
+  <si>
+    <t>8605.96</t>
+  </si>
+  <si>
+    <t>165615.30</t>
+  </si>
+  <si>
+    <t>10168.00</t>
+  </si>
+  <si>
+    <t>1900.00</t>
+  </si>
+  <si>
+    <t>15984.10</t>
+  </si>
+  <si>
+    <t>8052.00</t>
+  </si>
+  <si>
+    <t>3985.50</t>
+  </si>
+  <si>
+    <t>9629.70</t>
+  </si>
+  <si>
+    <t>970.00</t>
+  </si>
+  <si>
+    <t>3008.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>611.82</t>
+  </si>
+  <si>
+    <t>822.80</t>
+  </si>
+  <si>
+    <t>2238.00</t>
+  </si>
+  <si>
+    <t>886.16</t>
+  </si>
+  <si>
+    <t>428.00</t>
+  </si>
+  <si>
+    <t>82.23</t>
+  </si>
+  <si>
+    <t>23320.00</t>
+  </si>
+  <si>
+    <t>1232.43</t>
+  </si>
+  <si>
+    <t>8103.15</t>
+  </si>
+  <si>
+    <t>1257.11</t>
+  </si>
+  <si>
+    <t>78.62</t>
+  </si>
+  <si>
+    <t>2538.50</t>
+  </si>
+  <si>
+    <t>5849.00</t>
+  </si>
+  <si>
+    <t>18654.06</t>
+  </si>
+  <si>
+    <t>77.71</t>
+  </si>
+  <si>
+    <t>348.00</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>55.72</t>
+  </si>
+  <si>
+    <t>102.75</t>
+  </si>
+  <si>
+    <t>3064.90</t>
+  </si>
+  <si>
+    <t>10012.00</t>
+  </si>
+  <si>
+    <t>30792.29</t>
+  </si>
+  <si>
+    <t>4719.78</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>2135.16</t>
+  </si>
+  <si>
+    <t>460.00</t>
+  </si>
+  <si>
+    <t>393.84</t>
+  </si>
+  <si>
+    <t>27725.42</t>
+  </si>
+  <si>
+    <t>1110.00</t>
+  </si>
+  <si>
+    <t>36040.12</t>
+  </si>
+  <si>
+    <t>536.99</t>
+  </si>
+  <si>
+    <t>2459.00</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>1270.73</t>
+  </si>
+  <si>
+    <t>1334.40</t>
+  </si>
+  <si>
+    <t>1008.00</t>
+  </si>
+  <si>
+    <t>821.10</t>
+  </si>
+  <si>
+    <t>245.00</t>
+  </si>
+  <si>
+    <t>5880.00</t>
+  </si>
+  <si>
+    <t>1446.00</t>
+  </si>
+  <si>
+    <t>335.00</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>991.98</t>
+  </si>
+  <si>
+    <t>386.17</t>
+  </si>
+  <si>
+    <t>289.00</t>
+  </si>
+  <si>
+    <t>43.92</t>
+  </si>
+  <si>
+    <t>5382.73</t>
+  </si>
+  <si>
+    <t>316.11</t>
+  </si>
+  <si>
+    <t>16667.00</t>
+  </si>
+  <si>
+    <t>3200.00</t>
+  </si>
+  <si>
+    <t>2240.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>1050.00</t>
+  </si>
+  <si>
+    <t>108972.00</t>
+  </si>
+  <si>
+    <t>5135.00</t>
+  </si>
+  <si>
+    <t>4420.00</t>
+  </si>
+  <si>
+    <t>2420.00</t>
+  </si>
+  <si>
+    <t>999.00</t>
+  </si>
+  <si>
+    <t>2697.30</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>1139.00</t>
+  </si>
+  <si>
+    <t>333.59</t>
+  </si>
+  <si>
+    <t>439.00</t>
+  </si>
+  <si>
+    <t>40.85</t>
+  </si>
+  <si>
+    <t>6199.00</t>
+  </si>
+  <si>
+    <t>1307.67</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>75000.00</t>
+  </si>
+  <si>
+    <t>7800.00</t>
+  </si>
+  <si>
+    <t>428940.00</t>
+  </si>
+  <si>
+    <t>1060.00</t>
+  </si>
+  <si>
+    <t>706.84</t>
+  </si>
+  <si>
+    <t>9.41</t>
+  </si>
+  <si>
+    <t>31.92</t>
+  </si>
+  <si>
+    <t>635.00</t>
+  </si>
+  <si>
+    <t>2176.00</t>
+  </si>
+  <si>
+    <t>378.00</t>
+  </si>
+  <si>
+    <t>641.79</t>
+  </si>
+  <si>
+    <t>1129.00</t>
+  </si>
+  <si>
+    <t>5654.55</t>
+  </si>
+  <si>
+    <t>100.28</t>
+  </si>
+  <si>
+    <t>540.00</t>
+  </si>
+  <si>
+    <t>43.15</t>
+  </si>
+  <si>
+    <t>9.00</t>
+  </si>
+  <si>
+    <t>304.00</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>129.00</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>9701.10</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>3249.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>2470.00</t>
+  </si>
+  <si>
+    <t>2904.00</t>
+  </si>
+  <si>
+    <t>1620.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>4605.76</t>
+  </si>
+  <si>
+    <t>586.00</t>
+  </si>
+  <si>
+    <t>2499.36</t>
+  </si>
+  <si>
+    <t>382.00</t>
+  </si>
+  <si>
+    <t>2270.30</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>45.05</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>27.32</t>
+  </si>
+  <si>
+    <t>131039.20</t>
+  </si>
+  <si>
+    <t>8160.00</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>1794.96</t>
+  </si>
+  <si>
+    <t>384.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>10588.50</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>290.00</t>
+  </si>
+  <si>
+    <t>6480.00</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>395.00</t>
+  </si>
+  <si>
+    <t>990.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>3090.19</t>
+  </si>
+  <si>
+    <t>3373.24</t>
+  </si>
+  <si>
+    <t>5910.50</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>227.40</t>
+  </si>
+  <si>
+    <t>4633.00</t>
+  </si>
+  <si>
+    <t>1942.48</t>
+  </si>
+  <si>
+    <t>725.00</t>
+  </si>
+  <si>
+    <t>61.76</t>
+  </si>
+  <si>
+    <t>3060.00</t>
+  </si>
+  <si>
+    <t>2886.12</t>
+  </si>
+  <si>
+    <t>548.40</t>
+  </si>
+  <si>
+    <t>1395.04</t>
+  </si>
+  <si>
+    <t>777.03</t>
+  </si>
+  <si>
+    <t>1007.88</t>
+  </si>
+  <si>
+    <t>460.66</t>
+  </si>
+  <si>
+    <t>44.40</t>
+  </si>
+  <si>
+    <t>2543.00</t>
+  </si>
+  <si>
+    <t>597.00</t>
+  </si>
+  <si>
+    <t>15.20</t>
+  </si>
+  <si>
+    <t>4833.00</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>647.31</t>
+  </si>
+  <si>
+    <t>79.60</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>798.90</t>
+  </si>
+  <si>
+    <t>966.00</t>
+  </si>
+  <si>
+    <t>237.50</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>352.00</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>373.91</t>
+  </si>
+  <si>
+    <t>590.00</t>
+  </si>
+  <si>
+    <t>995.40</t>
+  </si>
+  <si>
+    <t>709.40</t>
+  </si>
+  <si>
+    <t>3958.90</t>
+  </si>
+  <si>
+    <t>217.80</t>
+  </si>
+  <si>
+    <t>688864.51</t>
+  </si>
+  <si>
+    <t>16800.00</t>
+  </si>
+  <si>
+    <t>1331.00</t>
+  </si>
+  <si>
+    <t>196300.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>52000.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>50000.00</t>
+  </si>
+  <si>
+    <t>223000.00</t>
+  </si>
+  <si>
+    <t>111500.00</t>
+  </si>
+  <si>
+    <t>19300.00</t>
+  </si>
+  <si>
+    <t>422794.40</t>
+  </si>
+  <si>
+    <t>1850.00</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>93.98</t>
+  </si>
+  <si>
+    <t>16000.00</t>
+  </si>
+  <si>
+    <t>18343.00</t>
+  </si>
+  <si>
+    <t>8840.00</t>
+  </si>
+  <si>
+    <t>120000.00</t>
+  </si>
+  <si>
+    <t>784.00</t>
+  </si>
+  <si>
+    <t>174.00</t>
   </si>
 </sst>
 </file>
